--- a/myapp/files/9_MethodComparePercent/Scenario 281.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 281.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2746</v>
+        <v>11384</v>
       </c>
       <c r="F2" t="n">
-        <v>3.27861023222494</v>
+        <v>2.74616323557082</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.83870967741935</v>
+        <v>2.734375</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5180</v>
+        <v>15914</v>
       </c>
       <c r="F3" t="n">
-        <v>6.18470539072294</v>
+        <v>3.8389354999011</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>6.45161290322581</v>
+        <v>3.90625</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1717</v>
+        <v>11048</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05002686406782</v>
+        <v>2.66510992854765</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2258064516129</v>
+        <v>2.734375</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3320</v>
+        <v>11521</v>
       </c>
       <c r="F5" t="n">
-        <v>3.96394245119694</v>
+        <v>2.7792117565892</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.83870967741935</v>
+        <v>2.34375</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3706</v>
+        <v>11201</v>
       </c>
       <c r="F6" t="n">
-        <v>4.42481045907707</v>
+        <v>2.70201813085284</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.83870967741935</v>
+        <v>2.734375</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4474</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.07926337982641</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.34375</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>18109</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.3684355264364</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>5.71428571428571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>5.078125</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1760</v>
+        <v>28456</v>
       </c>
       <c r="F9" t="n">
-        <v>2.10136708256224</v>
+        <v>6.86444316860535</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>5.71428571428571</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2258064516129</v>
+        <v>7.421875</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1260</v>
+        <v>11144</v>
       </c>
       <c r="F10" t="n">
-        <v>1.50438779774342</v>
+        <v>2.68826801626856</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2258064516129</v>
+        <v>5.46875</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4657</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.12340848454439</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.5625</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>2658</v>
+        <v>5414</v>
       </c>
       <c r="F12" t="n">
-        <v>3.17354187809683</v>
+        <v>1.30601965542695</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>4.83870967741935</v>
+        <v>2.734375</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2345</v>
+        <v>22238</v>
       </c>
       <c r="F13" t="n">
-        <v>2.79983284580025</v>
+        <v>5.36447452851581</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -1011,10 +1011,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2258064516129</v>
+        <v>5.46875</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5531</v>
+        <v>48970</v>
       </c>
       <c r="F14" t="n">
-        <v>6.60378484866575</v>
+        <v>11.8130370384665</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -1049,10 +1049,10 @@
         <v>15.7142857142857</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>9.67741935483871</v>
+        <v>10.9375</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9350</v>
+        <v>40934</v>
       </c>
       <c r="F15" t="n">
-        <v>11.1635126261119</v>
+        <v>9.87451211216234</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>11.2903225806452</v>
+        <v>10.15625</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1976</v>
+        <v>9361</v>
       </c>
       <c r="F16" t="n">
-        <v>2.35926213360396</v>
+        <v>2.2581547828688</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2258064516129</v>
+        <v>2.34375</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>1260</v>
+        <v>9270</v>
       </c>
       <c r="F17" t="n">
-        <v>1.50438779774342</v>
+        <v>2.23620284555003</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -1163,10 +1163,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.61290322580645</v>
+        <v>1.5625</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>396</v>
+        <v>20691</v>
       </c>
       <c r="F18" t="n">
-        <v>0.472807593576503</v>
+        <v>4.99129159409662</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.61290322580645</v>
+        <v>3.515625</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>6264</v>
+        <v>27120</v>
       </c>
       <c r="F19" t="n">
-        <v>7.47895648021014</v>
+        <v>6.54215978115607</v>
       </c>
       <c r="G19" t="n">
         <v>14</v>
@@ -1239,10 +1239,10 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>6.45161290322581</v>
+        <v>6.25</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5585</v>
+        <v>28837</v>
       </c>
       <c r="F20" t="n">
-        <v>6.66825861142618</v>
+        <v>6.9563518292477</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>4.83870967741935</v>
+        <v>5.859375</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>177</v>
+        <v>8654</v>
       </c>
       <c r="F21" t="n">
-        <v>0.211330666825861</v>
+        <v>2.08760511600755</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.61290322580645</v>
+        <v>2.734375</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>266</v>
+        <v>7274</v>
       </c>
       <c r="F22" t="n">
-        <v>0.317592979523611</v>
+        <v>1.75470760501952</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.61290322580645</v>
+        <v>1.5625</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>6426</v>
+        <v>18534</v>
       </c>
       <c r="F23" t="n">
-        <v>7.67237776849143</v>
+        <v>4.4709583106175</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2258064516129</v>
+        <v>2.734375</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5136</v>
+        <v>14157</v>
       </c>
       <c r="F24" t="n">
-        <v>6.13217121365889</v>
+        <v>3.41509424859242</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1429,10 +1429,10 @@
         <v>5.71428571428571</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2258064516129</v>
+        <v>2.34375</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6141</v>
+        <v>10653</v>
       </c>
       <c r="F25" t="n">
-        <v>7.33209957614471</v>
+        <v>2.56982404677934</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>4.83870967741935</v>
+        <v>2.734375</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>10555</v>
+        <v>14527</v>
       </c>
       <c r="F26" t="n">
-        <v>12.6022327025252</v>
+        <v>3.50434937835008</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>8.06451612903226</v>
+        <v>2.734375</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
